--- a/biology/Zoologie/Halobisium_orientale/Halobisium_orientale.xlsx
+++ b/biology/Zoologie/Halobisium_orientale/Halobisium_orientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halobisium orientale est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Russie sur les côtes de Sibérie et au Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Russie sur les côtes de Sibérie et au Japon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Halobisium orientale japonicum Morikawa, 1958
 Halobisium orientale orientale (Redikorzev, 1918)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium orientale par Redikorzev en 1918. Elle est placée dans le genre Halobisium par Chamberlin en 1930[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ideobisium orientale par Redikorzev en 1918. Elle est placée dans le genre Halobisium par Chamberlin en 1930.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Redikorzev, 1918 : Pseudoscorpions nouveaux. I. Ezhegodnik Zoologicheskago Muzeya, vol. 22, p. 91-101.
 Morikawa, 1958 : Maritime Pseudo-scorpions from Japan. Memoirs of Ehime University, vol. 3, no 2, p. 5-11.</t>
